--- a/data/timetable_group_B.xlsx
+++ b/data/timetable_group_B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Projects\AttendWise\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A13F9D-9B77-41A8-B0F5-028B212C7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBC24E-96F8-458F-9920-93A956FB282E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,19 +522,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -542,19 +542,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
